--- a/WorkBot/main/backend/orders/OrderFiles/FingerLakes Farms/FingerLakes Farms _ COLLEGETOWN 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/FingerLakes Farms/FingerLakes Farms _ COLLEGETOWN 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,168 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>003003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Red Jacket - Fuji Apple</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$10.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$21.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Red Jacket - Rasp/Apple</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$10.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$21.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>003005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Red Jacket - Strawberry (12oz)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$10.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$21.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>003014</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Red Jacket - Fuji Apple 32oz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$24.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$24.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>004020</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Juice</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$27.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$27.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>004060</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Natalie's - Honey Tangarine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$14.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$14.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
